--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Goodale_et_al_2000/Goodale_et_al_2000.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Goodale_et_al_2000/Goodale_et_al_2000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Goodale_et_al_2000/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB01594-4B6B-6C4D-9FEA-B41236E2F965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC4A3A-B750-8E4E-ACA3-FE884444D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="760" windowWidth="27240" windowHeight="16420" xr2:uid="{538AD7EB-160E-9641-91F6-A7D826942086}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>Mean_Median_or_IndividualSample</t>
   </si>
   <si>
-    <t>DOC_mg_C_L</t>
-  </si>
-  <si>
     <t>DOC_unit</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>STER_DOC</t>
   </si>
   <si>
-    <t>NO3_mg_per_L_as_Nitrate</t>
-  </si>
-  <si>
     <t>NO3_unit</t>
   </si>
   <si>
@@ -399,6 +393,12 @@
   </si>
   <si>
     <t>Goodale et al. 2078</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>NO3</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C80"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,45 +838,45 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>44.257795999999999</v>
@@ -885,2998 +885,2998 @@
         <v>-71.319730000000007</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" s="5">
         <v>35339</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2">
         <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q2">
         <v>79.096045197739997</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
         <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
       </c>
       <c r="I3" s="5">
         <v>35370</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q3">
         <v>87.005649717514203</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
       </c>
       <c r="I4" s="5">
         <v>35431</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q4">
         <v>172.03389830508399</v>
       </c>
       <c r="R4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="5">
         <v>35462</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5">
         <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q5">
         <v>193.785310734463</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
       </c>
       <c r="I6" s="5">
         <v>35490</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q6">
         <v>231.35593220338899</v>
       </c>
       <c r="R6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
       </c>
       <c r="I7" s="5">
         <v>35521</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7">
         <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q7">
         <v>261.016949152542</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
       </c>
       <c r="I8" s="5">
         <v>35551</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q8">
         <v>154.23728813559299</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
       </c>
       <c r="I9" s="5">
         <v>35582</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q9">
         <v>79.096045197739997</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
       </c>
       <c r="I10" s="5">
         <v>35612</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10">
         <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q10">
         <v>90.960451977401107</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
       </c>
       <c r="I11" s="5">
         <v>35643</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q11">
         <v>41.525423728813699</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
       </c>
       <c r="I12" s="5">
         <v>35674</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q12">
         <v>77.118644067796595</v>
       </c>
       <c r="R12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
         <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
       </c>
       <c r="I13" s="5">
         <v>35339</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13">
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
         <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
       </c>
       <c r="I14" s="5">
         <v>35370</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q14">
         <v>13.8418079096044</v>
       </c>
       <c r="R14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
         <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
       </c>
       <c r="I15" s="5">
         <v>35431</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q15">
         <v>61.299435028248702</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
         <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
       </c>
       <c r="I16" s="5">
         <v>35462</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16">
         <v>80</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q16">
         <v>77.118644067796595</v>
       </c>
       <c r="R16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
         <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
       </c>
       <c r="I17" s="5">
         <v>35490</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17">
         <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q17">
         <v>81.073446327683698</v>
       </c>
       <c r="R17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
         <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
       </c>
       <c r="I18" s="5">
         <v>35521</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K18">
         <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q18">
         <v>92.937853107344793</v>
       </c>
       <c r="R18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
         <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s">
-        <v>26</v>
       </c>
       <c r="I19" s="5">
         <v>35551</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K19">
         <v>80</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q19">
         <v>61.299435028248702</v>
       </c>
       <c r="R19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
         <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" t="s">
-        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>35582</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K20">
         <v>80</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q20">
         <v>13.8418079096044</v>
       </c>
       <c r="R20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
         <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s">
-        <v>26</v>
       </c>
       <c r="I21" s="5">
         <v>35612</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K21">
         <v>80</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q21">
         <v>9.8870056497176293</v>
       </c>
       <c r="R21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
         <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s">
-        <v>26</v>
       </c>
       <c r="I22" s="5">
         <v>35643</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K22">
         <v>80</v>
       </c>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q22">
         <v>5.93220338983053</v>
       </c>
       <c r="R22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
         <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s">
-        <v>26</v>
       </c>
       <c r="I23" s="5">
         <v>35674</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K23">
         <v>80</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q23">
         <v>3.9548022598871002</v>
       </c>
       <c r="R23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I24" s="5">
         <v>35462</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K24">
         <v>80</v>
       </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q24">
         <v>227.40112994350201</v>
       </c>
       <c r="R24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I25" s="5">
         <v>35490</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K25">
         <v>80</v>
       </c>
       <c r="L25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q25">
         <v>292.65536723163802</v>
       </c>
       <c r="R25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I26" s="5">
         <v>35521</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K26">
         <v>80</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q26">
         <v>322.31638418079098</v>
       </c>
       <c r="R26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I27" s="5">
         <v>35551</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K27">
         <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q27">
         <v>183.898305084745</v>
       </c>
       <c r="R27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I28" s="5">
         <v>35582</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K28">
         <v>80</v>
       </c>
       <c r="L28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q28">
         <v>110.734463276836</v>
       </c>
       <c r="R28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I29" s="5">
         <v>35612</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K29">
         <v>80</v>
       </c>
       <c r="L29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q29">
         <v>61.299435028248702</v>
       </c>
       <c r="R29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I30" s="5">
         <v>35643</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K30">
         <v>80</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q30">
         <v>59.322033898305001</v>
       </c>
       <c r="R30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I31" s="5">
         <v>35674</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K31">
         <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q31">
         <v>57.344632768361599</v>
       </c>
       <c r="R31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I32" s="5">
         <v>35339</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K32">
         <v>80</v>
       </c>
       <c r="L32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q32">
         <v>128.53107344632701</v>
       </c>
       <c r="R32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I33" s="5">
         <v>35370</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K33">
         <v>80</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q33">
         <v>110.734463276836</v>
       </c>
       <c r="R33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I34" s="5">
         <v>35431</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K34">
         <v>80</v>
       </c>
       <c r="L34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q34">
         <v>227.40112994350201</v>
       </c>
       <c r="R34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I35" s="5">
         <v>35462</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K35">
         <v>80</v>
       </c>
       <c r="L35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q35">
         <v>245.19774011299401</v>
       </c>
       <c r="R35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I36" s="5">
         <v>35490</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K36">
         <v>80</v>
       </c>
       <c r="L36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q36">
         <v>308.47457627118598</v>
       </c>
       <c r="R36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I37" s="5">
         <v>35521</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K37">
         <v>80</v>
       </c>
       <c r="L37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q37">
         <v>318.36158192090301</v>
       </c>
       <c r="R37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I38" s="5">
         <v>35551</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K38">
         <v>80</v>
       </c>
       <c r="L38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q38">
         <v>223.44632768361501</v>
       </c>
       <c r="R38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I39" s="5">
         <v>35582</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K39">
         <v>80</v>
       </c>
       <c r="L39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q39">
         <v>191.80790960451901</v>
       </c>
       <c r="R39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I40" s="5">
         <v>35612</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K40">
         <v>80</v>
       </c>
       <c r="L40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q40">
         <v>96.892655367231598</v>
       </c>
       <c r="R40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I41" s="5">
         <v>35643</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K41">
         <v>80</v>
       </c>
       <c r="L41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q41">
         <v>284.74576271186402</v>
       </c>
       <c r="R41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I42" s="5">
         <v>35674</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K42">
         <v>80</v>
       </c>
       <c r="L42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q42">
         <v>229.378531073446</v>
       </c>
       <c r="R42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I43" s="5">
         <v>35551</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K43">
         <v>80</v>
       </c>
       <c r="L43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q43">
         <v>130.508474576271</v>
       </c>
       <c r="R43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I44" s="5">
         <v>35582</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K44">
         <v>80</v>
       </c>
       <c r="L44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q44">
         <v>65.254237288135499</v>
       </c>
       <c r="R44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I45" s="5">
         <v>35612</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K45">
         <v>80</v>
       </c>
       <c r="L45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q45">
         <v>59.322033898305001</v>
       </c>
       <c r="R45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I46" s="5">
         <v>35643</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K46">
         <v>80</v>
       </c>
       <c r="L46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q46">
         <v>31.638418079095999</v>
       </c>
       <c r="R46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I47" s="5">
         <v>35674</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K47">
         <v>80</v>
       </c>
       <c r="L47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q47">
         <v>41.525423728813699</v>
       </c>
       <c r="R47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I48" s="5">
         <v>35339</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K48">
         <v>110</v>
       </c>
       <c r="L48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="4">
         <v>47.191011199999998</v>
       </c>
       <c r="R48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I49" s="5">
         <v>35370</v>
       </c>
       <c r="J49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K49">
         <v>110</v>
       </c>
       <c r="L49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="4">
         <v>41.292134799999999</v>
       </c>
       <c r="R49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I50" s="5">
         <v>35431</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K50">
         <v>110</v>
       </c>
       <c r="L50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="4">
         <v>90.449438200000003</v>
       </c>
       <c r="R50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I51" s="5">
         <v>35462</v>
       </c>
       <c r="J51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K51">
         <v>110</v>
       </c>
       <c r="L51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="4">
         <v>94.382022500000005</v>
       </c>
       <c r="R51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I52" s="5">
         <v>35490</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K52">
         <v>110</v>
       </c>
       <c r="L52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="4">
         <v>108.146067</v>
       </c>
       <c r="R52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I53" s="5">
         <v>35521</v>
       </c>
       <c r="J53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K53">
         <v>110</v>
       </c>
       <c r="L53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="4">
         <v>121.910112</v>
       </c>
       <c r="R53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I54" s="5">
         <v>35551</v>
       </c>
       <c r="J54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K54">
         <v>110</v>
       </c>
       <c r="L54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="4">
         <v>88.483146099999999</v>
       </c>
       <c r="R54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I55" s="5">
         <v>35582</v>
       </c>
       <c r="J55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K55">
         <v>110</v>
       </c>
       <c r="L55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="4">
         <v>43.258426999999998</v>
       </c>
       <c r="R55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I56" s="5">
         <v>35612</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K56">
         <v>110</v>
       </c>
       <c r="L56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="4">
         <v>31.4606742</v>
       </c>
       <c r="R56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I57" s="5">
         <v>35643</v>
       </c>
       <c r="J57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K57">
         <v>110</v>
       </c>
       <c r="L57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q57" s="4">
         <v>35.393258400000001</v>
       </c>
       <c r="R57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I58" s="5">
         <v>35674</v>
       </c>
       <c r="J58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K58">
         <v>110</v>
       </c>
       <c r="L58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="4">
         <v>35.393258400000001</v>
       </c>
       <c r="R58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I59" s="5">
         <v>35339</v>
       </c>
       <c r="J59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K59">
         <v>90</v>
       </c>
       <c r="L59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="4">
         <v>0</v>
       </c>
       <c r="R59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I60" s="5">
         <v>35370</v>
       </c>
       <c r="J60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K60">
         <v>90</v>
       </c>
       <c r="L60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q60">
         <v>9.8314606741572899</v>
       </c>
       <c r="R60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I61" s="5">
         <v>35431</v>
       </c>
       <c r="J61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K61">
         <v>90</v>
       </c>
       <c r="L61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q61">
         <v>41.2921348314607</v>
       </c>
       <c r="R61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I62" s="5">
         <v>35462</v>
       </c>
       <c r="J62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K62">
         <v>90</v>
       </c>
       <c r="L62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q62">
         <v>45.224719101123497</v>
       </c>
       <c r="R62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I63" s="5">
         <v>35490</v>
       </c>
       <c r="J63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K63">
         <v>90</v>
       </c>
       <c r="L63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q63">
         <v>51.123595505617999</v>
       </c>
       <c r="R63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I64" s="5">
         <v>35521</v>
       </c>
       <c r="J64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K64">
         <v>90</v>
       </c>
       <c r="L64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q64">
         <v>55.056179775280803</v>
       </c>
       <c r="R64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I65" s="5">
         <v>35551</v>
       </c>
       <c r="J65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K65">
         <v>90</v>
       </c>
       <c r="L65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q65">
         <v>39.325842696629202</v>
       </c>
       <c r="R65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I66" s="5">
         <v>35582</v>
       </c>
       <c r="J66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K66">
         <v>90</v>
       </c>
       <c r="L66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q66">
         <v>9.8314606741572899</v>
       </c>
       <c r="R66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I67" s="5">
         <v>35612</v>
       </c>
       <c r="J67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K67">
         <v>90</v>
       </c>
       <c r="L67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q67">
         <v>7.8651685393258397</v>
       </c>
       <c r="R67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I68" s="5">
         <v>35643</v>
       </c>
       <c r="J68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K68">
         <v>90</v>
       </c>
       <c r="L68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q68">
         <v>5.8988764044944002</v>
       </c>
       <c r="R68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I69" s="5">
         <v>35674</v>
       </c>
       <c r="J69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K69">
         <v>90</v>
       </c>
       <c r="L69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q69">
         <v>1.9662921348314999</v>
       </c>
       <c r="R69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s">
         <v>39</v>
-      </c>
-      <c r="H70" t="s">
-        <v>41</v>
       </c>
       <c r="I70" s="5">
         <v>35339</v>
       </c>
       <c r="J70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K70">
         <v>80</v>
       </c>
       <c r="L70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s">
         <v>39</v>
-      </c>
-      <c r="H71" t="s">
-        <v>41</v>
       </c>
       <c r="I71" s="5">
         <v>35370</v>
       </c>
       <c r="J71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K71">
         <v>80</v>
       </c>
       <c r="L71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q71">
         <v>1.96629213</v>
       </c>
       <c r="R71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s">
         <v>39</v>
-      </c>
-      <c r="H72" t="s">
-        <v>41</v>
       </c>
       <c r="I72" s="5">
         <v>35431</v>
       </c>
       <c r="J72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K72">
         <v>80</v>
       </c>
       <c r="L72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q72">
         <v>9.8314606700000002</v>
       </c>
       <c r="R72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s">
         <v>39</v>
-      </c>
-      <c r="H73" t="s">
-        <v>41</v>
       </c>
       <c r="I73" s="5">
         <v>35462</v>
       </c>
       <c r="J73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K73">
         <v>80</v>
       </c>
       <c r="L73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q73">
         <v>15.7303371</v>
       </c>
       <c r="R73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
         <v>39</v>
-      </c>
-      <c r="H74" t="s">
-        <v>41</v>
       </c>
       <c r="I74" s="5">
         <v>35490</v>
       </c>
       <c r="J74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K74">
         <v>80</v>
       </c>
       <c r="L74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q74">
         <v>7.86516854</v>
       </c>
       <c r="R74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s">
         <v>39</v>
-      </c>
-      <c r="H75" t="s">
-        <v>41</v>
       </c>
       <c r="I75" s="5">
         <v>35521</v>
       </c>
       <c r="J75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K75">
         <v>80</v>
       </c>
       <c r="L75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q75">
         <v>9.8314606700000002</v>
       </c>
       <c r="R75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s">
         <v>39</v>
-      </c>
-      <c r="H76" t="s">
-        <v>41</v>
       </c>
       <c r="I76" s="5">
         <v>35551</v>
       </c>
       <c r="J76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K76">
         <v>80</v>
       </c>
       <c r="L76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q76">
         <v>1.96629213</v>
       </c>
       <c r="R76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s">
         <v>39</v>
-      </c>
-      <c r="H77" t="s">
-        <v>41</v>
       </c>
       <c r="I77" s="5">
         <v>35582</v>
       </c>
       <c r="J77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K77">
         <v>80</v>
       </c>
       <c r="L77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q77">
         <v>7.86516854</v>
       </c>
       <c r="R77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s">
         <v>39</v>
-      </c>
-      <c r="H78" t="s">
-        <v>41</v>
       </c>
       <c r="I78" s="5">
         <v>35612</v>
       </c>
       <c r="J78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K78">
         <v>80</v>
       </c>
       <c r="L78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q78">
         <v>7.86516854</v>
       </c>
       <c r="R78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s">
         <v>39</v>
-      </c>
-      <c r="H79" t="s">
-        <v>41</v>
       </c>
       <c r="I79" s="5">
         <v>35643</v>
       </c>
       <c r="J79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K79">
         <v>80</v>
       </c>
       <c r="L79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q79">
         <v>15.7303371</v>
       </c>
       <c r="R79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="s">
         <v>39</v>
-      </c>
-      <c r="H80" t="s">
-        <v>41</v>
       </c>
       <c r="I80" s="5">
         <v>35674</v>
       </c>
       <c r="J80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K80">
         <v>80</v>
       </c>
       <c r="L80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q80">
         <v>11.7977528</v>
       </c>
       <c r="R80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
